--- a/PartShopping.xlsx
+++ b/PartShopping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Antenna</t>
   </si>
@@ -140,9 +140,6 @@
     <t>old? 40KbpsOOK</t>
   </si>
   <si>
-    <t>TX+MCU?</t>
-  </si>
-  <si>
     <t>crystal-less, 27MHz</t>
   </si>
   <si>
@@ -216,6 +213,15 @@
   </si>
   <si>
     <t>C2A-GM</t>
+  </si>
+  <si>
+    <t>8051 MCU</t>
+  </si>
+  <si>
+    <t>50Kbaud OOK, 100Kbaud FSK</t>
+  </si>
+  <si>
+    <t>loop antenna</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -262,16 +274,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I46"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,93 +660,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2011</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -681,16 +775,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -698,158 +792,163 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25">
         <v>2014</v>
       </c>
       <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
         <v>57</v>
       </c>
-      <c r="I25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26">
+      <c r="E26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="6">
         <v>2.77</v>
       </c>
-      <c r="I26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="I26" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H27">
-        <v>2.99</v>
-      </c>
-      <c r="I27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="H30" s="10">
+        <v>3.31</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H28">
-        <v>3.31</v>
-      </c>
-      <c r="I28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -860,7 +959,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -871,7 +970,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -882,7 +981,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -896,7 +995,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -910,7 +1009,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -924,7 +1023,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
